--- a/modules/main/templates/sourcemessage_last.xlsx
+++ b/modules/main/templates/sourcemessage_last.xlsx
@@ -7,19 +7,19 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="TR_EXCEL_TITLE26-05-2016-14-20" sheetId="1" r:id="rId4"/>
+    <sheet name="TR_EXCEL_TITLE26-05-2016-15-03" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TR_EXCEL_TITLE26-05-2016-14-20'!$A$3:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TR_EXCEL_TITLE26-05-2016-15-03'!$A$3:$D$3</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="475">
-  <si>
-    <t>TRANSLATION_EXCEL_TABLEHEADER_26.05.2016 14:20</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="461">
+  <si>
+    <t>TRANSLATION_EXCEL_TABLEHEADER_26.05.2016 15:03</t>
   </si>
   <si>
     <t>Категория</t>
@@ -280,24 +280,6 @@
     <t>{icon} Отмена</t>
   </si>
   <si>
-    <t>NAV_LOGIN</t>
-  </si>
-  <si>
-    <t>Вход</t>
-  </si>
-  <si>
-    <t>NAV_PROFILE</t>
-  </si>
-  <si>
-    <t>Профиль</t>
-  </si>
-  <si>
-    <t>NAV_LOGOUT</t>
-  </si>
-  <si>
-    <t>Выход</t>
-  </si>
-  <si>
     <t>CONTACT_NAME</t>
   </si>
   <si>
@@ -631,39 +613,6 @@
     <t>{icon} ADMIN_USERS_REFRESH</t>
   </si>
   <si>
-    <t>NAV_ALLIANCE_DASHBOARD</t>
-  </si>
-  <si>
-    <t>NAV_ALLIANCE_CREDITCALENDAR</t>
-  </si>
-  <si>
-    <t>NAV_SKODA_DASHBOARD</t>
-  </si>
-  <si>
-    <t>NAV_SKODA_SERVICESHEDULER</t>
-  </si>
-  <si>
-    <t>ŠKODA. График смен</t>
-  </si>
-  <si>
-    <t>NAV_SKODA_STATUSMONITOR</t>
-  </si>
-  <si>
-    <t>ŠKODA. Монитор готовности</t>
-  </si>
-  <si>
-    <t>NAV_ADMIN_DASHBOARD</t>
-  </si>
-  <si>
-    <t>NAV_USERS</t>
-  </si>
-  <si>
-    <t>NAV_COMPANIES</t>
-  </si>
-  <si>
-    <t>NAV_POSITIONS</t>
-  </si>
-  <si>
     <t>ERROR_WRONG_USERNAME_OR_PASSWORD</t>
   </si>
   <si>
@@ -1168,12 +1117,6 @@
     <t>Вас обслуживают:</t>
   </si>
   <si>
-    <t>NO_RECORDS_FOUND</t>
-  </si>
-  <si>
-    <t>Записей нет</t>
-  </si>
-  <si>
     <t>BODY_TYPE</t>
   </si>
   <si>
@@ -1442,6 +1385,21 @@
   </si>
   <si>
     <t>GO_BACK</t>
+  </si>
+  <si>
+    <t>SK_TITLE</t>
+  </si>
+  <si>
+    <t>STATUS_TABLEHEADER</t>
+  </si>
+  <si>
+    <t>STATUSMONITOR_EXCEL_TITLE</t>
+  </si>
+  <si>
+    <t>CREDITCALENDAR_EXPORT_CONFIRM</t>
+  </si>
+  <si>
+    <t>Выгрузить отмеченные записи в Excel?</t>
   </si>
 </sst>
 </file>
@@ -1845,7 +1803,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D304"/>
+  <dimension ref="A1:D295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2693,36 +2651,32 @@
       <c r="C62" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>106</v>
-      </c>
+      <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2730,24 +2684,28 @@
         <v>5</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D65" s="2"/>
+      <c r="D65" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2" t="s">
@@ -2927,86 +2885,86 @@
       <c r="C79" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="D79" s="2"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>140</v>
-      </c>
+      <c r="D80" s="2"/>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>142</v>
-      </c>
+      <c r="D81" s="2"/>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D82" s="2"/>
+      <c r="D82" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="2"/>
+      <c r="D83" s="2" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D84" s="2"/>
+      <c r="D84" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3034,7 +2992,7 @@
         <v>7</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3042,13 +3000,13 @@
         <v>5</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3056,13 +3014,13 @@
         <v>5</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>154</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3070,13 +3028,13 @@
         <v>5</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>152</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3084,13 +3042,13 @@
         <v>5</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>157</v>
+        <v>46</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3098,13 +3056,13 @@
         <v>5</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>42</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3112,41 +3070,37 @@
         <v>5</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="D93" s="2"/>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="D94" s="2"/>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3154,24 +3108,28 @@
         <v>5</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D96" s="2"/>
+      <c r="D96" s="2" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D97" s="2"/>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2" t="s">
@@ -3184,7 +3142,7 @@
         <v>7</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>166</v>
+        <v>88</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3192,27 +3150,25 @@
         <v>5</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>168</v>
-      </c>
+      <c r="D99" s="2"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3220,13 +3176,13 @@
         <v>5</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>94</v>
+        <v>170</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3234,25 +3190,27 @@
         <v>5</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D102" s="2"/>
+      <c r="D102" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>174</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3260,13 +3218,13 @@
         <v>5</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>176</v>
+        <v>56</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3274,13 +3232,13 @@
         <v>5</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>96</v>
+        <v>175</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3288,13 +3246,13 @@
         <v>5</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>40</v>
+        <v>177</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3302,13 +3260,13 @@
         <v>5</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3316,13 +3274,13 @@
         <v>5</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3330,13 +3288,13 @@
         <v>5</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3344,13 +3302,13 @@
         <v>5</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3358,27 +3316,25 @@
         <v>5</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>186</v>
-      </c>
+      <c r="D111" s="2"/>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3386,13 +3342,13 @@
         <v>5</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3400,25 +3356,27 @@
         <v>5</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D114" s="2"/>
+      <c r="D114" s="2" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3426,13 +3384,13 @@
         <v>5</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>15</v>
+        <v>192</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3440,13 +3398,13 @@
         <v>5</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>188</v>
+        <v>58</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3454,27 +3412,25 @@
         <v>5</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>196</v>
-      </c>
+      <c r="D118" s="2"/>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>198</v>
+        <v>86</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3482,7 +3438,7 @@
         <v>5</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>7</v>
@@ -3496,91 +3452,91 @@
         <v>5</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D121" s="2"/>
+      <c r="D121" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="D122" s="2"/>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D123" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="D123" s="2"/>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="D124" s="2"/>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D125" s="2"/>
+      <c r="D125" s="2" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D126" s="2"/>
+      <c r="D126" s="2" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3588,13 +3544,13 @@
         <v>5</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>208</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3602,13 +3558,13 @@
         <v>5</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3616,7 +3572,7 @@
         <v>5</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>7</v>
@@ -3628,7 +3584,7 @@
         <v>5</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>7</v>
@@ -3640,7 +3596,7 @@
         <v>5</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>7</v>
@@ -3652,7 +3608,7 @@
         <v>5</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>7</v>
@@ -3664,31 +3620,35 @@
         <v>5</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D134" s="2"/>
+      <c r="D134" s="2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D135" s="2"/>
+      <c r="D135" s="2" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>7</v>
@@ -3700,13 +3660,13 @@
         <v>5</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3714,13 +3674,13 @@
         <v>5</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>221</v>
+        <v>148</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3728,13 +3688,13 @@
         <v>5</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>148</v>
+        <v>221</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3742,13 +3702,13 @@
         <v>5</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3756,38 +3716,40 @@
         <v>5</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D141" s="2" t="s">
-        <v>225</v>
-      </c>
+      <c r="D141" s="2"/>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D142" s="2"/>
+      <c r="D142" s="2" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D143" s="2"/>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2" t="s">
@@ -3799,32 +3761,36 @@
       <c r="C144" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D144" s="2"/>
+      <c r="D144" s="2" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D145" s="2"/>
+      <c r="D145" s="2" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>102</v>
+        <v>233</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3832,13 +3798,13 @@
         <v>5</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3846,25 +3812,27 @@
         <v>5</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D148" s="2"/>
+      <c r="D148" s="2" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3872,13 +3840,13 @@
         <v>5</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3886,13 +3854,13 @@
         <v>5</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3900,13 +3868,13 @@
         <v>5</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>152</v>
+        <v>244</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3914,25 +3882,27 @@
         <v>5</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D153" s="2"/>
+      <c r="D153" s="2" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3940,13 +3910,13 @@
         <v>5</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3954,13 +3924,13 @@
         <v>5</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3968,13 +3938,13 @@
         <v>5</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3982,13 +3952,13 @@
         <v>5</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3996,13 +3966,13 @@
         <v>5</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4010,13 +3980,13 @@
         <v>5</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4024,13 +3994,13 @@
         <v>5</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4038,13 +4008,13 @@
         <v>5</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4052,13 +4022,13 @@
         <v>5</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4066,13 +4036,13 @@
         <v>5</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4080,13 +4050,13 @@
         <v>5</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4094,13 +4064,13 @@
         <v>5</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4108,13 +4078,13 @@
         <v>5</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4122,13 +4092,13 @@
         <v>5</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>267</v>
+        <v>80</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4136,13 +4106,13 @@
         <v>5</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4150,13 +4120,13 @@
         <v>5</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4164,13 +4134,13 @@
         <v>5</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4178,13 +4148,13 @@
         <v>5</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4192,13 +4162,13 @@
         <v>5</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4206,13 +4176,13 @@
         <v>5</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>110</v>
+        <v>283</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4220,27 +4190,25 @@
         <v>5</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>278</v>
+        <v>69</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D175" s="2" t="s">
-        <v>279</v>
-      </c>
+      <c r="D175" s="2"/>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4248,13 +4216,13 @@
         <v>5</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4262,13 +4230,13 @@
         <v>5</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4276,13 +4244,13 @@
         <v>5</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4290,13 +4258,13 @@
         <v>5</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>80</v>
+        <v>293</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4304,13 +4272,13 @@
         <v>5</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>290</v>
+        <v>88</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4318,13 +4286,13 @@
         <v>5</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4332,13 +4300,13 @@
         <v>5</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>293</v>
+        <v>90</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>294</v>
+        <v>90</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4346,13 +4314,13 @@
         <v>5</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>296</v>
+        <v>40</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4360,13 +4328,13 @@
         <v>5</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4374,13 +4342,13 @@
         <v>5</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4388,25 +4356,27 @@
         <v>5</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>69</v>
+        <v>302</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D187" s="2"/>
+      <c r="D187" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>302</v>
+        <v>34</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4414,13 +4384,13 @@
         <v>5</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>304</v>
+        <v>36</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4434,7 +4404,7 @@
         <v>7</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>306</v>
+        <v>38</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4442,13 +4412,13 @@
         <v>5</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D191" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4456,13 +4426,13 @@
         <v>5</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D192" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4470,13 +4440,13 @@
         <v>5</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D193" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4498,13 +4468,13 @@
         <v>5</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>96</v>
+        <v>314</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>96</v>
+        <v>315</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4512,13 +4482,13 @@
         <v>5</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>40</v>
+        <v>317</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4526,13 +4496,13 @@
         <v>5</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4540,13 +4510,13 @@
         <v>5</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>318</v>
+        <v>58</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4554,13 +4524,13 @@
         <v>5</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4568,13 +4538,13 @@
         <v>5</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>34</v>
+        <v>281</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4582,13 +4552,13 @@
         <v>5</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4596,13 +4566,13 @@
         <v>5</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>38</v>
+        <v>325</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4610,13 +4580,13 @@
         <v>5</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>324</v>
+        <v>83</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4624,13 +4594,13 @@
         <v>5</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>326</v>
+        <v>86</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4638,13 +4608,13 @@
         <v>5</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4652,13 +4622,13 @@
         <v>5</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>330</v>
+        <v>25</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4700,7 +4670,7 @@
         <v>7</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>336</v>
+        <v>182</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4708,13 +4678,13 @@
         <v>5</v>
       </c>
       <c r="B210" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D210" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4728,7 +4698,7 @@
         <v>7</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>60</v>
+        <v>339</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4736,13 +4706,13 @@
         <v>5</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>181</v>
+        <v>341</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4750,13 +4720,13 @@
         <v>5</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>19</v>
+        <v>337</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4764,13 +4734,13 @@
         <v>5</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4778,13 +4748,13 @@
         <v>5</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>83</v>
+        <v>346</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4792,13 +4762,13 @@
         <v>5</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>86</v>
+        <v>348</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4806,13 +4776,13 @@
         <v>5</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>346</v>
+        <v>309</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4820,13 +4790,13 @@
         <v>5</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4834,13 +4804,13 @@
         <v>5</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4848,41 +4818,37 @@
         <v>5</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D220" s="2" t="s">
-        <v>351</v>
-      </c>
+      <c r="D220" s="2"/>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D221" s="2" t="s">
-        <v>188</v>
-      </c>
+      <c r="D221" s="2"/>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4890,13 +4856,13 @@
         <v>5</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4904,13 +4870,13 @@
         <v>5</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>358</v>
+        <v>19</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4918,13 +4884,13 @@
         <v>5</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>354</v>
+        <v>19</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4932,13 +4898,13 @@
         <v>5</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>361</v>
+        <v>15</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4980,7 +4946,7 @@
         <v>7</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4988,13 +4954,13 @@
         <v>5</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>40</v>
+        <v>369</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5002,13 +4968,13 @@
         <v>5</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5016,19 +4982,21 @@
         <v>5</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D232" s="2"/>
+      <c r="D232" s="2" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>7</v>
@@ -5040,13 +5008,13 @@
         <v>5</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5054,13 +5022,13 @@
         <v>5</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5068,13 +5036,13 @@
         <v>5</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>19</v>
+        <v>380</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5082,13 +5050,13 @@
         <v>5</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>19</v>
+        <v>218</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5096,13 +5064,13 @@
         <v>5</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>15</v>
+        <v>371</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5110,13 +5078,13 @@
         <v>5</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5124,13 +5092,13 @@
         <v>5</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5138,13 +5106,13 @@
         <v>5</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>384</v>
+        <v>162</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5152,13 +5120,13 @@
         <v>5</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>386</v>
+        <v>160</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5172,7 +5140,7 @@
         <v>7</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>388</v>
+        <v>164</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5180,13 +5148,13 @@
         <v>5</v>
       </c>
       <c r="B244" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D244" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5194,13 +5162,13 @@
         <v>5</v>
       </c>
       <c r="B245" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D245" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5208,25 +5176,27 @@
         <v>5</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D246" s="2"/>
+      <c r="D246" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B247" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D247" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5234,13 +5204,13 @@
         <v>5</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>397</v>
+        <v>371</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5248,13 +5218,13 @@
         <v>5</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5262,13 +5232,13 @@
         <v>5</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>235</v>
+        <v>399</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5276,13 +5246,13 @@
         <v>5</v>
       </c>
       <c r="B251" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D251" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5296,7 +5266,7 @@
         <v>7</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5310,7 +5280,7 @@
         <v>7</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>388</v>
+        <v>299</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5324,7 +5294,7 @@
         <v>7</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>168</v>
+        <v>405</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5332,13 +5302,13 @@
         <v>5</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>166</v>
+        <v>299</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5346,13 +5316,13 @@
         <v>5</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>170</v>
+        <v>301</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5360,14 +5330,12 @@
         <v>5</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D257" s="2" t="s">
-        <v>408</v>
-      </c>
+      <c r="D257" s="2"/>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2" t="s">
@@ -5394,7 +5362,7 @@
         <v>7</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5422,7 +5390,7 @@
         <v>7</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>390</v>
+        <v>112</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5450,7 +5418,7 @@
         <v>7</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>418</v>
+        <v>114</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5458,13 +5426,13 @@
         <v>5</v>
       </c>
       <c r="B264" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D264" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5472,69 +5440,61 @@
         <v>5</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D265" s="2" t="s">
-        <v>388</v>
-      </c>
+      <c r="D265" s="2"/>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D266" s="2" t="s">
-        <v>316</v>
-      </c>
+      <c r="D266" s="2"/>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D267" s="2" t="s">
-        <v>424</v>
-      </c>
+      <c r="D267" s="2"/>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D268" s="2" t="s">
-        <v>316</v>
-      </c>
+      <c r="D268" s="2"/>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>318</v>
+        <v>425</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5542,25 +5502,27 @@
         <v>5</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D270" s="2"/>
+      <c r="D270" s="2" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B271" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D271" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5568,7 +5530,7 @@
         <v>5</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>7</v>
@@ -5582,13 +5544,13 @@
         <v>5</v>
       </c>
       <c r="B273" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D273" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5596,13 +5558,13 @@
         <v>5</v>
       </c>
       <c r="B274" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D274" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5630,7 +5592,7 @@
         <v>7</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>120</v>
+        <v>182</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5644,7 +5606,7 @@
         <v>7</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>438</v>
+        <v>380</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5652,19 +5614,21 @@
         <v>5</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D278" s="2"/>
+      <c r="D278" s="2" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>7</v>
@@ -5676,12 +5640,14 @@
         <v>5</v>
       </c>
       <c r="B280" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D280" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C280" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D280" s="2"/>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2" t="s">
@@ -5693,7 +5659,9 @@
       <c r="C281" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D281" s="2"/>
+      <c r="D281" s="2" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2" t="s">
@@ -5706,7 +5674,7 @@
         <v>7</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>444</v>
+        <v>118</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5714,13 +5682,13 @@
         <v>5</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>126</v>
+        <v>401</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5728,13 +5696,13 @@
         <v>5</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>447</v>
+        <v>122</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5742,13 +5710,13 @@
         <v>5</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>122</v>
+        <v>447</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5756,13 +5724,13 @@
         <v>5</v>
       </c>
       <c r="B286" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D286" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D286" s="2" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5770,13 +5738,13 @@
         <v>5</v>
       </c>
       <c r="B287" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D287" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5784,13 +5752,13 @@
         <v>5</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>454</v>
+        <v>128</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5798,13 +5766,13 @@
         <v>5</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>188</v>
+        <v>413</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5812,13 +5780,13 @@
         <v>5</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5826,21 +5794,19 @@
         <v>5</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D291" s="2" t="s">
-        <v>132</v>
-      </c>
+      <c r="D291" s="2"/>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>7</v>
@@ -5852,166 +5818,38 @@
         <v>5</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D293" s="2" t="s">
-        <v>460</v>
-      </c>
+      <c r="D293" s="2"/>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D294" s="2" t="s">
-        <v>130</v>
-      </c>
+      <c r="D294" s="2"/>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4">
-      <c r="A296" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D296" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4">
-      <c r="A297" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D297" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4">
-      <c r="A298" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D298" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4">
-      <c r="A299" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D299" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4">
-      <c r="A300" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D300" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4">
-      <c r="A301" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D301" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4">
-      <c r="A302" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D302" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4">
-      <c r="A303" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D303" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4">
-      <c r="A304" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D304" s="2"/>
+        <v>460</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/modules/main/templates/sourcemessage_last.xlsx
+++ b/modules/main/templates/sourcemessage_last.xlsx
@@ -7,19 +7,19 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="TR_EXCEL_TITLE26-05-2016-15-03" sheetId="1" r:id="rId4"/>
+    <sheet name="TR_EXCEL_TITLE29-05-2016-14-24" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TR_EXCEL_TITLE26-05-2016-15-03'!$A$3:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TR_EXCEL_TITLE29-05-2016-14-24'!$A$3:$D$3</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="461">
-  <si>
-    <t>TRANSLATION_EXCEL_TABLEHEADER_26.05.2016 15:03</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="495">
+  <si>
+    <t>TRANSLATION_EXCEL_TABLEHEADER_29.05.2016 14:24</t>
   </si>
   <si>
     <t>Категория</t>
@@ -85,12 +85,6 @@
     <t>Поиск</t>
   </si>
   <si>
-    <t>Reset</t>
-  </si>
-  <si>
-    <t>Сброс</t>
-  </si>
-  <si>
     <t>Source Messages</t>
   </si>
   <si>
@@ -211,7 +205,7 @@
     <t>{icon} RESTORE</t>
   </si>
   <si>
-    <t>{icon} Восстановить</t>
+    <t>{icon} Восст.</t>
   </si>
   <si>
     <t>ERROR_EMAIL_EXISTS</t>
@@ -859,135 +853,132 @@
     <t>{icon} ŠKODA. Монитор готовности</t>
   </si>
   <si>
-    <t>{icon} EXCEL_OPERATIONS</t>
+    <t>{icon} IMPORT_EXCEL</t>
+  </si>
+  <si>
+    <t>{icon} Импорт Excel</t>
+  </si>
+  <si>
+    <t>{icon} SERVICESHEDULER</t>
+  </si>
+  <si>
+    <t>{icon} График смен</t>
+  </si>
+  <si>
+    <t>{icon} STATUSMONITOR</t>
+  </si>
+  <si>
+    <t>{icon} Монитор готовности</t>
+  </si>
+  <si>
+    <t>CLIENTCIRCULATION</t>
+  </si>
+  <si>
+    <t>ОКиС. Трафик клиентов</t>
+  </si>
+  <si>
+    <t>{icon} ADD_EVENT</t>
+  </si>
+  <si>
+    <t>{icon} Добавить событие</t>
+  </si>
+  <si>
+    <t>{icon} CLIENTCIRCULATION</t>
+  </si>
+  <si>
+    <t>{icon} ОКиС. Трафик Клиентов</t>
+  </si>
+  <si>
+    <t>CLIENTNAME</t>
+  </si>
+  <si>
+    <t>PHONE</t>
+  </si>
+  <si>
+    <t>Телефон</t>
+  </si>
+  <si>
+    <t>STATE</t>
+  </si>
+  <si>
+    <t>REGION</t>
+  </si>
+  <si>
+    <t>Регион</t>
+  </si>
+  <si>
+    <t>EMPLOYEE</t>
+  </si>
+  <si>
+    <t>Сотрудники</t>
+  </si>
+  <si>
+    <t>CONTACT_TYPE</t>
+  </si>
+  <si>
+    <t>TARGET</t>
+  </si>
+  <si>
+    <t>CAR_MODEL</t>
+  </si>
+  <si>
+    <t>COMMENT</t>
+  </si>
+  <si>
+    <t>WORKSHEDULER_DATE</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>WORKSHEDULER_RESPONSIBLE</t>
+  </si>
+  <si>
+    <t>Ответственный</t>
+  </si>
+  <si>
+    <t>MASTER_CONSULTANT_DOES_NOT_EXIST_TODAY</t>
+  </si>
+  <si>
+    <t>Не назначен мастер-консультант на текущую дату</t>
+  </si>
+  <si>
+    <t>CURRENT_MASTER_CONSULTANT</t>
+  </si>
+  <si>
+    <t>Мастер-консультант</t>
+  </si>
+  <si>
+    <t>SERVICESHEDULER_INDEX</t>
+  </si>
+  <si>
+    <t>График смен</t>
+  </si>
+  <si>
+    <t>SERVICESHEDULER_CALENDAR</t>
+  </si>
+  <si>
+    <t>Календарь</t>
+  </si>
+  <si>
+    <t>SERVICESHEDULER_TABLE</t>
+  </si>
+  <si>
+    <t>Таблица</t>
+  </si>
+  <si>
+    <t>{icon} STATUS_CREATE</t>
+  </si>
+  <si>
+    <t>{icon} STATUS_REFRESH</t>
+  </si>
+  <si>
+    <t>{icon} STATUS_EXPORT_EXCEL</t>
   </si>
   <si>
     <t>{icon} Excel</t>
   </si>
   <si>
-    <t>{icon} IMPORT_EXCEL</t>
-  </si>
-  <si>
-    <t>{icon} Импорт Excel</t>
-  </si>
-  <si>
-    <t>{icon} SERVICESHEDULER</t>
-  </si>
-  <si>
-    <t>{icon} График смен</t>
-  </si>
-  <si>
-    <t>{icon} STATUSMONITOR</t>
-  </si>
-  <si>
-    <t>{icon} Монитор готовности</t>
-  </si>
-  <si>
-    <t>CLIENTCIRCULATION</t>
-  </si>
-  <si>
-    <t>ОКиС. Трафик клиентов</t>
-  </si>
-  <si>
-    <t>{icon} ADD_EVENT</t>
-  </si>
-  <si>
-    <t>{icon} Добавить событие</t>
-  </si>
-  <si>
-    <t>{icon} CLIENTCIRCULATION</t>
-  </si>
-  <si>
-    <t>{icon} ОКиС. Трафик Клиентов</t>
-  </si>
-  <si>
-    <t>CLIENTNAME</t>
-  </si>
-  <si>
-    <t>PHONE</t>
-  </si>
-  <si>
-    <t>Телефон</t>
-  </si>
-  <si>
-    <t>STATE</t>
-  </si>
-  <si>
-    <t>REGION</t>
-  </si>
-  <si>
-    <t>Регион</t>
-  </si>
-  <si>
-    <t>EMPLOYEE</t>
-  </si>
-  <si>
-    <t>Сотрудники</t>
-  </si>
-  <si>
-    <t>CONTACT_TYPE</t>
-  </si>
-  <si>
-    <t>TARGET</t>
-  </si>
-  <si>
-    <t>CAR_MODEL</t>
-  </si>
-  <si>
-    <t>COMMENT</t>
-  </si>
-  <si>
-    <t>WORKSHEDULER_DATE</t>
-  </si>
-  <si>
-    <t>Дата</t>
-  </si>
-  <si>
-    <t>WORKSHEDULER_RESPONSIBLE</t>
-  </si>
-  <si>
-    <t>Ответственный</t>
-  </si>
-  <si>
-    <t>MASTER_CONSULTANT_DOES_NOT_EXIST_TODAY</t>
-  </si>
-  <si>
-    <t>Не назначен мастер-консультант на текущую дату</t>
-  </si>
-  <si>
-    <t>CURRENT_MASTER_CONSULTANT</t>
-  </si>
-  <si>
-    <t>Мастер-консультант</t>
-  </si>
-  <si>
-    <t>SERVICESHEDULER_INDEX</t>
-  </si>
-  <si>
-    <t>График смен</t>
-  </si>
-  <si>
-    <t>SERVICESHEDULER_CALENDAR</t>
-  </si>
-  <si>
-    <t>Календарь</t>
-  </si>
-  <si>
-    <t>SERVICESHEDULER_TABLE</t>
-  </si>
-  <si>
-    <t>Таблица</t>
-  </si>
-  <si>
-    <t>{icon} STATUS_CREATE</t>
-  </si>
-  <si>
-    <t>{icon} STATUS_REFRESH</t>
-  </si>
-  <si>
-    <t>{icon} STATUS_EXPORT_EXCEL</t>
-  </si>
-  <si>
     <t>SERVICESHEDULER_CREATE</t>
   </si>
   <si>
@@ -1081,9 +1072,15 @@
     <t>ERROR_WORKSHEDULER_DOES_NOT_EXIST_TO</t>
   </si>
   <si>
+    <t>Не назначен мастер-консультант на дату выдачи а/м</t>
+  </si>
+  <si>
     <t>ERROR_WORKSHEDULER_DOES_NOT_EXIST_FROM</t>
   </si>
   <si>
+    <t>Не назначен мастер-консультант на дату приема а/м</t>
+  </si>
+  <si>
     <t>{icon} STATUSMONITOR_TABLE</t>
   </si>
   <si>
@@ -1282,6 +1279,9 @@
     <t>IMPORTEXCEL</t>
   </si>
   <si>
+    <t>Импорт</t>
+  </si>
+  <si>
     <t>ADMIN_POSITIONS_POSITION</t>
   </si>
   <si>
@@ -1400,6 +1400,108 @@
   </si>
   <si>
     <t>Выгрузить отмеченные записи в Excel?</t>
+  </si>
+  <si>
+    <t>{icon} SERVICESHEDULER_GRAPH</t>
+  </si>
+  <si>
+    <t>{icon} График</t>
+  </si>
+  <si>
+    <t>{icon} SERVICESHEDULER_INDEX</t>
+  </si>
+  <si>
+    <t>{icon} ADVANCED</t>
+  </si>
+  <si>
+    <t>{icon} Дополнительно</t>
+  </si>
+  <si>
+    <t>CREDITCALENDARS</t>
+  </si>
+  <si>
+    <t>ОКиС. Календарь</t>
+  </si>
+  <si>
+    <t>{icon} CREDITCALENDAR_EXPORT_EXCEL</t>
+  </si>
+  <si>
+    <t>RESPONSIBLES_DOES_NOT_EXIST</t>
+  </si>
+  <si>
+    <t>Ответственные не назначены</t>
+  </si>
+  <si>
+    <t>COMMENTS</t>
+  </si>
+  <si>
+    <t>Комментарии</t>
+  </si>
+  <si>
+    <t>{icon} CREDITCALENDAR_CALENDAR</t>
+  </si>
+  <si>
+    <t>{icon} CREDITCALENDAR_TABLE</t>
+  </si>
+  <si>
+    <t>{icon} CREDITCALENDAR_TABLE_ALL</t>
+  </si>
+  <si>
+    <t>{icon} CREDITCALENDAR_TABLE_PRIVATE</t>
+  </si>
+  <si>
+    <t>{icon} Таблица (личные)</t>
+  </si>
+  <si>
+    <t>{icon} CREDITCALENDAR_GRAPH</t>
+  </si>
+  <si>
+    <t>CREDITCALENDAR</t>
+  </si>
+  <si>
+    <t>Календарь.</t>
+  </si>
+  <si>
+    <t>{icon} CHECK_ALL</t>
+  </si>
+  <si>
+    <t>{icon} Отметить все</t>
+  </si>
+  <si>
+    <t>{icon} UNCHECK_ALL</t>
+  </si>
+  <si>
+    <t>{icon} Снять отметки</t>
+  </si>
+  <si>
+    <t>{icon} CREDITCALENDAR_PRIVATE_CHECKBOX</t>
+  </si>
+  <si>
+    <t>{icon} Личная запись</t>
+  </si>
+  <si>
+    <t>{icon} CREDITCALENDAR_ALLDAY_CHECKBOX</t>
+  </si>
+  <si>
+    <t>{icon} Ежедневно</t>
+  </si>
+  <si>
+    <t>{icon} COMMENTS</t>
+  </si>
+  <si>
+    <t>{icon} Комментарии</t>
+  </si>
+  <si>
+    <t>{icon} COMMENT</t>
+  </si>
+  <si>
+    <t>{icon} Комментарий</t>
+  </si>
+  <si>
+    <t>YOU_CANNOT_EXECUTE_THIS_ACTION</t>
+  </si>
+  <si>
+    <t>Вам запрещено выполнять данное действие</t>
   </si>
 </sst>
 </file>
@@ -1803,7 +1905,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D295"/>
+  <dimension ref="A1:D313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2017,16 +2119,14 @@
       <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>7</v>
@@ -2038,7 +2138,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>7</v>
@@ -2050,12 +2150,14 @@
         <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
@@ -2165,34 +2267,34 @@
       <c r="C27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2200,13 +2302,13 @@
         <v>5</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2234,7 +2336,7 @@
         <v>7</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2242,13 +2344,13 @@
         <v>5</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2317,21 +2419,21 @@
       <c r="C38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
@@ -2358,7 +2460,7 @@
         <v>7</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2366,13 +2468,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2386,7 +2488,7 @@
         <v>7</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2394,13 +2496,13 @@
         <v>5</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2428,7 +2530,7 @@
         <v>7</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2436,13 +2538,13 @@
         <v>5</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2456,7 +2558,7 @@
         <v>7</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2464,13 +2566,13 @@
         <v>5</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2484,7 +2586,7 @@
         <v>7</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2492,13 +2594,13 @@
         <v>5</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2637,16 +2739,14 @@
       <c r="C61" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>104</v>
-      </c>
+      <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>7</v>
@@ -2658,12 +2758,14 @@
         <v>5</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
@@ -2871,16 +2973,14 @@
       <c r="C78" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>136</v>
-      </c>
+      <c r="D78" s="2"/>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>7</v>
@@ -2892,7 +2992,7 @@
         <v>5</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>7</v>
@@ -2904,25 +3004,27 @@
         <v>5</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D81" s="2"/>
+      <c r="D81" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2978,7 +3080,7 @@
         <v>7</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2986,13 +3088,13 @@
         <v>5</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3006,7 +3108,7 @@
         <v>7</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3014,7 +3116,7 @@
         <v>5</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>7</v>
@@ -3028,7 +3130,7 @@
         <v>5</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>7</v>
@@ -3042,13 +3144,13 @@
         <v>5</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3061,16 +3163,14 @@
       <c r="C92" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>156</v>
-      </c>
+      <c r="D92" s="2"/>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>7</v>
@@ -3082,12 +3182,14 @@
         <v>5</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D94" s="2"/>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2" t="s">
@@ -3128,7 +3230,7 @@
         <v>7</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>164</v>
+        <v>86</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3136,26 +3238,26 @@
         <v>5</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="D98" s="2"/>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D99" s="2"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2" t="s">
@@ -3182,7 +3284,7 @@
         <v>7</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3190,13 +3292,13 @@
         <v>5</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3204,13 +3306,13 @@
         <v>5</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3218,13 +3320,13 @@
         <v>5</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3252,7 +3354,7 @@
         <v>7</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>177</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3260,13 +3362,13 @@
         <v>5</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3294,7 +3396,7 @@
         <v>7</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>182</v>
+        <v>81</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3302,26 +3404,26 @@
         <v>5</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="D110" s="2"/>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D111" s="2"/>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2" t="s">
@@ -3334,7 +3436,7 @@
         <v>7</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>186</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3342,13 +3444,13 @@
         <v>5</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>15</v>
+        <v>180</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3356,13 +3458,13 @@
         <v>5</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3390,7 +3492,7 @@
         <v>7</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3398,39 +3500,39 @@
         <v>5</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="D117" s="2"/>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D118" s="2"/>
+      <c r="D118" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3438,7 +3540,7 @@
         <v>5</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>7</v>
@@ -3452,21 +3554,19 @@
         <v>5</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D121" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="D121" s="2"/>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>7</v>
@@ -3478,7 +3578,7 @@
         <v>5</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>7</v>
@@ -3490,12 +3590,14 @@
         <v>5</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D124" s="2"/>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2" t="s">
@@ -3522,7 +3624,7 @@
         <v>7</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>204</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3530,7 +3632,7 @@
         <v>5</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>7</v>
@@ -3544,13 +3646,13 @@
         <v>5</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3563,16 +3665,14 @@
       <c r="C129" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D129" s="2" t="s">
-        <v>208</v>
-      </c>
+      <c r="D129" s="2"/>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>7</v>
@@ -3584,7 +3684,7 @@
         <v>5</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>7</v>
@@ -3596,7 +3696,7 @@
         <v>5</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>7</v>
@@ -3608,25 +3708,27 @@
         <v>5</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D133" s="2"/>
+      <c r="D133" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3639,21 +3741,21 @@
       <c r="C135" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D135" s="2" t="s">
-        <v>215</v>
-      </c>
+      <c r="D135" s="2"/>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D136" s="2"/>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2" t="s">
@@ -3666,7 +3768,7 @@
         <v>7</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>218</v>
+        <v>146</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3674,13 +3776,13 @@
         <v>5</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3694,7 +3796,7 @@
         <v>7</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>221</v>
+        <v>144</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3702,26 +3804,26 @@
         <v>5</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D140" s="2" t="s">
-        <v>146</v>
-      </c>
+      <c r="D140" s="2"/>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D141" s="2"/>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2" t="s">
@@ -3832,7 +3934,7 @@
         <v>7</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>239</v>
+        <v>84</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3840,13 +3942,13 @@
         <v>5</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3888,7 +3990,7 @@
         <v>7</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3896,13 +3998,13 @@
         <v>5</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3910,13 +4012,13 @@
         <v>5</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3958,7 +4060,7 @@
         <v>7</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3966,13 +4068,13 @@
         <v>5</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4000,7 +4102,7 @@
         <v>7</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>259</v>
+        <v>102</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4008,13 +4110,13 @@
         <v>5</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4084,7 +4186,7 @@
         <v>7</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>270</v>
+        <v>78</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4092,13 +4194,13 @@
         <v>5</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4162,27 +4264,25 @@
         <v>5</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>280</v>
+        <v>67</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D173" s="2" t="s">
-        <v>281</v>
-      </c>
+      <c r="D173" s="2"/>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4190,12 +4290,14 @@
         <v>5</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>69</v>
+        <v>282</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D175" s="2"/>
+      <c r="D175" s="2" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2" t="s">
@@ -4250,7 +4352,7 @@
         <v>7</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>291</v>
+        <v>86</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4258,13 +4360,13 @@
         <v>5</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D180" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4272,7 +4374,7 @@
         <v>5</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>294</v>
+        <v>88</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>7</v>
@@ -4286,13 +4388,13 @@
         <v>5</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>296</v>
+        <v>38</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4300,13 +4402,13 @@
         <v>5</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>90</v>
+        <v>294</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>90</v>
+        <v>295</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4314,13 +4416,13 @@
         <v>5</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4334,7 +4436,7 @@
         <v>7</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>299</v>
+        <v>30</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4342,13 +4444,13 @@
         <v>5</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>301</v>
+        <v>32</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4356,13 +4458,13 @@
         <v>5</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4370,13 +4472,13 @@
         <v>5</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4384,13 +4486,13 @@
         <v>5</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>36</v>
+        <v>303</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4398,13 +4500,13 @@
         <v>5</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4488,7 +4590,7 @@
         <v>7</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>317</v>
+        <v>56</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4496,13 +4598,13 @@
         <v>5</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>319</v>
+        <v>58</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4510,13 +4612,13 @@
         <v>5</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>58</v>
+        <v>319</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4524,13 +4626,13 @@
         <v>5</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4538,13 +4640,13 @@
         <v>5</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D200" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4558,7 +4660,7 @@
         <v>7</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4572,7 +4674,7 @@
         <v>7</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>325</v>
+        <v>84</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4580,13 +4682,13 @@
         <v>5</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D203" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4600,7 +4702,7 @@
         <v>7</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4628,7 +4730,7 @@
         <v>7</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>25</v>
+        <v>331</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4636,13 +4738,13 @@
         <v>5</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>332</v>
+        <v>180</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4670,7 +4772,7 @@
         <v>7</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>182</v>
+        <v>336</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4678,13 +4780,13 @@
         <v>5</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4692,13 +4794,13 @@
         <v>5</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4726,7 +4828,7 @@
         <v>7</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4734,13 +4836,13 @@
         <v>5</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4748,13 +4850,13 @@
         <v>5</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4768,7 +4870,7 @@
         <v>7</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>348</v>
+        <v>38</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4776,13 +4878,13 @@
         <v>5</v>
       </c>
       <c r="B217" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D217" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4796,7 +4898,7 @@
         <v>7</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>40</v>
+        <v>351</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4804,13 +4906,13 @@
         <v>5</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4818,37 +4920,41 @@
         <v>5</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D220" s="2"/>
+      <c r="D220" s="2" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D221" s="2"/>
+      <c r="D221" s="2" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>356</v>
+        <v>19</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4856,13 +4962,13 @@
         <v>5</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>358</v>
+        <v>19</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4870,13 +4976,13 @@
         <v>5</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4884,13 +4990,13 @@
         <v>5</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>19</v>
+        <v>362</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4898,13 +5004,13 @@
         <v>5</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>15</v>
+        <v>364</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4912,13 +5018,13 @@
         <v>5</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4926,13 +5032,13 @@
         <v>5</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4940,13 +5046,13 @@
         <v>5</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4954,13 +5060,13 @@
         <v>5</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4968,27 +5074,25 @@
         <v>5</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D231" s="2" t="s">
-        <v>371</v>
-      </c>
+      <c r="D231" s="2"/>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4996,25 +5100,27 @@
         <v>5</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D233" s="2"/>
+      <c r="D233" s="2" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5022,13 +5128,13 @@
         <v>5</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>378</v>
+        <v>216</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5036,13 +5142,13 @@
         <v>5</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5050,13 +5156,13 @@
         <v>5</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>218</v>
+        <v>372</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5064,13 +5170,13 @@
         <v>5</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5078,13 +5184,13 @@
         <v>5</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>373</v>
+        <v>160</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5092,13 +5198,13 @@
         <v>5</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>369</v>
+        <v>158</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5106,7 +5212,7 @@
         <v>5</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>7</v>
@@ -5120,13 +5226,13 @@
         <v>5</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>160</v>
+        <v>388</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5134,13 +5240,13 @@
         <v>5</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>164</v>
+        <v>390</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5148,13 +5254,13 @@
         <v>5</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>389</v>
+        <v>166</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5162,13 +5268,13 @@
         <v>5</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5176,13 +5282,13 @@
         <v>5</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>168</v>
+        <v>370</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5190,13 +5296,13 @@
         <v>5</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5204,13 +5310,13 @@
         <v>5</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>371</v>
+        <v>398</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5218,13 +5324,13 @@
         <v>5</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5232,13 +5338,13 @@
         <v>5</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5246,13 +5352,13 @@
         <v>5</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>401</v>
+        <v>295</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5260,13 +5366,13 @@
         <v>5</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5274,13 +5380,13 @@
         <v>5</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5288,13 +5394,13 @@
         <v>5</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>405</v>
+        <v>297</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5302,27 +5408,25 @@
         <v>5</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D255" s="2" t="s">
-        <v>299</v>
-      </c>
+      <c r="D255" s="2"/>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>301</v>
+        <v>409</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5330,25 +5434,27 @@
         <v>5</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D257" s="2"/>
+      <c r="D257" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5356,7 +5462,7 @@
         <v>5</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>7</v>
@@ -5370,13 +5476,13 @@
         <v>5</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5384,7 +5490,7 @@
         <v>5</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>7</v>
@@ -5398,13 +5504,13 @@
         <v>5</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5412,13 +5518,13 @@
         <v>5</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>114</v>
+        <v>420</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5426,21 +5532,19 @@
         <v>5</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D264" s="2" t="s">
-        <v>419</v>
-      </c>
+      <c r="D264" s="2"/>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>7</v>
@@ -5452,7 +5556,7 @@
         <v>5</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>7</v>
@@ -5464,37 +5568,41 @@
         <v>5</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D267" s="2"/>
+      <c r="D267" s="2" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D268" s="2"/>
+      <c r="D268" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5502,13 +5610,13 @@
         <v>5</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5516,13 +5624,13 @@
         <v>5</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5530,13 +5638,13 @@
         <v>5</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>116</v>
+        <v>433</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5544,13 +5652,13 @@
         <v>5</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5558,13 +5666,13 @@
         <v>5</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>433</v>
+        <v>180</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5572,13 +5680,13 @@
         <v>5</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>435</v>
+        <v>379</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5586,13 +5694,13 @@
         <v>5</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5600,27 +5708,25 @@
         <v>5</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D277" s="2" t="s">
-        <v>380</v>
-      </c>
+      <c r="D277" s="2"/>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>126</v>
+        <v>441</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5628,25 +5734,27 @@
         <v>5</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D279" s="2"/>
+      <c r="D279" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>441</v>
+        <v>116</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5654,13 +5762,13 @@
         <v>5</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>124</v>
+        <v>400</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5668,13 +5776,13 @@
         <v>5</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5682,13 +5790,13 @@
         <v>5</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5696,13 +5804,13 @@
         <v>5</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>122</v>
+        <v>449</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5710,13 +5818,13 @@
         <v>5</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5724,13 +5832,13 @@
         <v>5</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>449</v>
+        <v>126</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5738,13 +5846,13 @@
         <v>5</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>451</v>
+        <v>412</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5752,13 +5860,13 @@
         <v>5</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>128</v>
+        <v>412</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5766,35 +5874,31 @@
         <v>5</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D289" s="2" t="s">
-        <v>413</v>
-      </c>
+      <c r="D289" s="2"/>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D290" s="2" t="s">
-        <v>413</v>
-      </c>
+      <c r="D290" s="2"/>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>7</v>
@@ -5806,7 +5910,7 @@
         <v>5</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>7</v>
@@ -5818,37 +5922,291 @@
         <v>5</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D293" s="2"/>
+      <c r="D293" s="2" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D294" s="2"/>
+      <c r="D294" s="2" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>460</v>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D305" s="2"/>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>494</v>
       </c>
     </row>
   </sheetData>

--- a/modules/main/templates/sourcemessage_last.xlsx
+++ b/modules/main/templates/sourcemessage_last.xlsx
@@ -7,19 +7,19 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="TR_EXCEL_TITLE29-05-2016-14-24" sheetId="1" r:id="rId4"/>
+    <sheet name="TR_EXCEL_TITLE13-06-2016-11-44" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TR_EXCEL_TITLE29-05-2016-14-24'!$A$3:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TR_EXCEL_TITLE13-06-2016-11-44'!$A$3:$D$3</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="495">
-  <si>
-    <t>TRANSLATION_EXCEL_TABLEHEADER_29.05.2016 14:24</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="560">
+  <si>
+    <t>TRANSLATION_EXCEL_TABLEHEADER_13.06.2016 11:44</t>
   </si>
   <si>
     <t>Категория</t>
@@ -67,12 +67,6 @@
     <t>Редактирование</t>
   </si>
   <si>
-    <t>Are you sure you want to delete this item?</t>
-  </si>
-  <si>
-    <t>Удалить запись?</t>
-  </si>
-  <si>
     <t>Create</t>
   </si>
   <si>
@@ -157,6 +151,9 @@
     <t>Client Circulations</t>
   </si>
   <si>
+    <t>ОКиС. Трафик клиентов</t>
+  </si>
+  <si>
     <t>SEARCH</t>
   </si>
   <si>
@@ -265,9 +262,6 @@
     <t>{icon} Редактировать</t>
   </si>
   <si>
-    <t>{icon} Delete</t>
-  </si>
-  <si>
     <t>{icon} CANCEL</t>
   </si>
   <si>
@@ -874,9 +868,6 @@
     <t>CLIENTCIRCULATION</t>
   </si>
   <si>
-    <t>ОКиС. Трафик клиентов</t>
-  </si>
-  <si>
     <t>{icon} ADD_EVENT</t>
   </si>
   <si>
@@ -907,348 +898,324 @@
     <t>Регион</t>
   </si>
   <si>
-    <t>EMPLOYEE</t>
+    <t>CONTACT_TYPE</t>
+  </si>
+  <si>
+    <t>TARGET</t>
+  </si>
+  <si>
+    <t>CAR_MODEL</t>
+  </si>
+  <si>
+    <t>COMMENT</t>
+  </si>
+  <si>
+    <t>WORKSHEDULER_DATE</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>WORKSHEDULER_RESPONSIBLE</t>
+  </si>
+  <si>
+    <t>Ответственный</t>
+  </si>
+  <si>
+    <t>MASTER_CONSULTANT_DOES_NOT_EXIST_TODAY</t>
+  </si>
+  <si>
+    <t>Не назначен мастер-консультант на текущую дату</t>
+  </si>
+  <si>
+    <t>CURRENT_MASTER_CONSULTANT</t>
+  </si>
+  <si>
+    <t>Мастер-консультант</t>
+  </si>
+  <si>
+    <t>SERVICESHEDULER_INDEX</t>
+  </si>
+  <si>
+    <t>График смен</t>
+  </si>
+  <si>
+    <t>{icon} STATUS_CREATE</t>
+  </si>
+  <si>
+    <t>{icon} STATUS_REFRESH</t>
+  </si>
+  <si>
+    <t>{icon} STATUS_EXPORT_EXCEL</t>
+  </si>
+  <si>
+    <t>{icon} Excel</t>
+  </si>
+  <si>
+    <t>SERVICESHEDULER_CREATE</t>
+  </si>
+  <si>
+    <t>ADD_SERVICESHEDULER_INFO</t>
+  </si>
+  <si>
+    <t>Для получения списка доступных сотрудников необходимо наличие активных записей сотрудников в справочнике "Сотрудники" с проставленным брендом Skoda и должностью "Мастер-консультант"</t>
+  </si>
+  <si>
+    <t>{icon} STATUS_UPDATE</t>
+  </si>
+  <si>
+    <t>{icon} BUTTON_CANCEL</t>
+  </si>
+  <si>
+    <t>UPLOAD_FILE</t>
+  </si>
+  <si>
+    <t>Загрузить файл</t>
+  </si>
+  <si>
+    <t>SOURCEMESSAGES</t>
+  </si>
+  <si>
+    <t>{icon} UPLOAD</t>
+  </si>
+  <si>
+    <t>{icon} Загрузить файл</t>
+  </si>
+  <si>
+    <t>xlsxFile</t>
+  </si>
+  <si>
+    <t>Файл для загрузки</t>
+  </si>
+  <si>
+    <t>STATUS_UPDATE_RN</t>
+  </si>
+  <si>
+    <t>STATUS_TITLE</t>
+  </si>
+  <si>
+    <t>Монитор готовности</t>
+  </si>
+  <si>
+    <t>{icon} STATUS_SHOW_MONITOR</t>
+  </si>
+  <si>
+    <t>{icon} Монитор</t>
+  </si>
+  <si>
+    <t>{icon} STATUSMONITOR_CALENDAR</t>
+  </si>
+  <si>
+    <t>{icon} Календарь</t>
+  </si>
+  <si>
+    <t>STATUSMONITOR_INDEX</t>
+  </si>
+  <si>
+    <t>STATUS_REGNUMBER</t>
+  </si>
+  <si>
+    <t>Рег. №</t>
+  </si>
+  <si>
+    <t>STATUS_FROM</t>
+  </si>
+  <si>
+    <t>Дата от:</t>
+  </si>
+  <si>
+    <t>STATUS_TO</t>
+  </si>
+  <si>
+    <t>Дата до</t>
+  </si>
+  <si>
+    <t>STATUS_RESPONSIBLE</t>
+  </si>
+  <si>
+    <t>STATUS_STATUS</t>
+  </si>
+  <si>
+    <t>STATUS_PROGRESS</t>
+  </si>
+  <si>
+    <t>Прогресс</t>
+  </si>
+  <si>
+    <t>ERROR_WORKSHEDULER_DOES_NOT_EXIST_TO</t>
+  </si>
+  <si>
+    <t>Не назначен мастер-консультант на дату выдачи а/м</t>
+  </si>
+  <si>
+    <t>ERROR_WORKSHEDULER_DOES_NOT_EXIST_FROM</t>
+  </si>
+  <si>
+    <t>Не назначен мастер-консультант на дату приема а/м</t>
+  </si>
+  <si>
+    <t>{icon} STATUSMONITOR_TABLE</t>
+  </si>
+  <si>
+    <t>{icon} Таблица</t>
+  </si>
+  <si>
+    <t>IS_STATE</t>
+  </si>
+  <si>
+    <t>Состояние</t>
+  </si>
+  <si>
+    <t>STATUS_CREATE</t>
+  </si>
+  <si>
+    <t>{icon} STATUS_CREATE_RN</t>
+  </si>
+  <si>
+    <t>STATUS_UPDATE</t>
+  </si>
+  <si>
+    <t>STATUSMONITOR_TITLE</t>
+  </si>
+  <si>
+    <t>Skoda Монитор готовности</t>
+  </si>
+  <si>
+    <t>WELCOME_MSG</t>
+  </si>
+  <si>
+    <t>Вас обслуживают:</t>
+  </si>
+  <si>
+    <t>BODY_TYPE</t>
+  </si>
+  <si>
+    <t>Тип кузова</t>
+  </si>
+  <si>
+    <t>BODY_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>BRAND</t>
+  </si>
+  <si>
+    <t>Бренд</t>
+  </si>
+  <si>
+    <t>BRAND_LOGO</t>
+  </si>
+  <si>
+    <t>Логотип</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>MODELSCOUNT</t>
+  </si>
+  <si>
+    <t>Кол-во а/м</t>
+  </si>
+  <si>
+    <t>EMPLOYEESSCOUNT</t>
+  </si>
+  <si>
+    <t>Кол-во сотрудников</t>
+  </si>
+  <si>
+    <t>COMPANIES</t>
+  </si>
+  <si>
+    <t>Организации</t>
+  </si>
+  <si>
+    <t>COMPANY_NAME</t>
+  </si>
+  <si>
+    <t>COMPANY_BRAND</t>
+  </si>
+  <si>
+    <t>COMPANY_LOGO</t>
+  </si>
+  <si>
+    <t>COMPANY_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>SURNAME</t>
+  </si>
+  <si>
+    <t>PATRONIMYC</t>
+  </si>
+  <si>
+    <t>PHOTO</t>
+  </si>
+  <si>
+    <t>Фото</t>
+  </si>
+  <si>
+    <t>COMPANY</t>
+  </si>
+  <si>
+    <t>Организация</t>
+  </si>
+  <si>
+    <t>POSITION</t>
+  </si>
+  <si>
+    <t>FULLNAME</t>
+  </si>
+  <si>
+    <t>Ф.И.О</t>
+  </si>
+  <si>
+    <t>BRAND_ID</t>
+  </si>
+  <si>
+    <t>MODEL_NAME</t>
+  </si>
+  <si>
+    <t>Модель</t>
+  </si>
+  <si>
+    <t>MODELS</t>
+  </si>
+  <si>
+    <t>Модели</t>
+  </si>
+  <si>
+    <t>REFERENCES_POSITION</t>
+  </si>
+  <si>
+    <t>Должности</t>
+  </si>
+  <si>
+    <t>REFERENCES_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>REGION_NAME</t>
+  </si>
+  <si>
+    <t>REGION_CODE</t>
+  </si>
+  <si>
+    <t>Код региона</t>
+  </si>
+  <si>
+    <t>REGIONANDCODES</t>
+  </si>
+  <si>
+    <t>EMPLOYEES</t>
   </si>
   <si>
     <t>Сотрудники</t>
   </si>
   <si>
-    <t>CONTACT_TYPE</t>
-  </si>
-  <si>
-    <t>TARGET</t>
-  </si>
-  <si>
-    <t>CAR_MODEL</t>
-  </si>
-  <si>
-    <t>COMMENT</t>
-  </si>
-  <si>
-    <t>WORKSHEDULER_DATE</t>
-  </si>
-  <si>
-    <t>Дата</t>
-  </si>
-  <si>
-    <t>WORKSHEDULER_RESPONSIBLE</t>
-  </si>
-  <si>
-    <t>Ответственный</t>
-  </si>
-  <si>
-    <t>MASTER_CONSULTANT_DOES_NOT_EXIST_TODAY</t>
-  </si>
-  <si>
-    <t>Не назначен мастер-консультант на текущую дату</t>
-  </si>
-  <si>
-    <t>CURRENT_MASTER_CONSULTANT</t>
-  </si>
-  <si>
-    <t>Мастер-консультант</t>
-  </si>
-  <si>
-    <t>SERVICESHEDULER_INDEX</t>
-  </si>
-  <si>
-    <t>График смен</t>
-  </si>
-  <si>
-    <t>SERVICESHEDULER_CALENDAR</t>
-  </si>
-  <si>
-    <t>Календарь</t>
-  </si>
-  <si>
-    <t>SERVICESHEDULER_TABLE</t>
-  </si>
-  <si>
-    <t>Таблица</t>
-  </si>
-  <si>
-    <t>{icon} STATUS_CREATE</t>
-  </si>
-  <si>
-    <t>{icon} STATUS_REFRESH</t>
-  </si>
-  <si>
-    <t>{icon} STATUS_EXPORT_EXCEL</t>
-  </si>
-  <si>
-    <t>{icon} Excel</t>
-  </si>
-  <si>
-    <t>SERVICESHEDULER_CREATE</t>
-  </si>
-  <si>
-    <t>ADD_SERVICESHEDULER_INFO</t>
-  </si>
-  <si>
-    <t>Для получения списка доступных сотрудников необходимо наличие активных записей сотрудников в справочнике "Сотрудники" с проставленным брендом Skoda и должностью "Мастер-консультант"</t>
-  </si>
-  <si>
-    <t>{icon} STATUS_UPDATE</t>
-  </si>
-  <si>
-    <t>{icon} BUTTON_CANCEL</t>
-  </si>
-  <si>
-    <t>UPLOAD_FILE</t>
-  </si>
-  <si>
-    <t>Загрузить файл</t>
-  </si>
-  <si>
-    <t>SOURCEMESSAGES</t>
-  </si>
-  <si>
-    <t>{icon} UPLOAD</t>
-  </si>
-  <si>
-    <t>{icon} Загрузить файл</t>
-  </si>
-  <si>
-    <t>xlsxFile</t>
-  </si>
-  <si>
-    <t>Файл для загрузки</t>
-  </si>
-  <si>
-    <t>STATUS_UPDATE_RN</t>
-  </si>
-  <si>
-    <t>STATUS_TITLE</t>
-  </si>
-  <si>
-    <t>Монитор готовности</t>
-  </si>
-  <si>
-    <t>{icon} STATUS_SHOW_MONITOR</t>
-  </si>
-  <si>
-    <t>{icon} Монитор</t>
-  </si>
-  <si>
-    <t>{icon} STATUSMONITOR_CALENDAR</t>
-  </si>
-  <si>
-    <t>{icon} Календарь</t>
-  </si>
-  <si>
-    <t>STATUSMONITOR_INDEX</t>
-  </si>
-  <si>
-    <t>STATUS_REGNUMBER</t>
-  </si>
-  <si>
-    <t>Рег. №</t>
-  </si>
-  <si>
-    <t>STATUS_FROM</t>
-  </si>
-  <si>
-    <t>Дата от:</t>
-  </si>
-  <si>
-    <t>STATUS_TO</t>
-  </si>
-  <si>
-    <t>Дата до</t>
-  </si>
-  <si>
-    <t>STATUS_RESPONSIBLE</t>
-  </si>
-  <si>
-    <t>STATUS_STATUS</t>
-  </si>
-  <si>
-    <t>STATUS_PROGRESS</t>
-  </si>
-  <si>
-    <t>Прогресс</t>
-  </si>
-  <si>
-    <t>ERROR_WORKSHEDULER_DOES_NOT_EXIST_TO</t>
-  </si>
-  <si>
-    <t>Не назначен мастер-консультант на дату выдачи а/м</t>
-  </si>
-  <si>
-    <t>ERROR_WORKSHEDULER_DOES_NOT_EXIST_FROM</t>
-  </si>
-  <si>
-    <t>Не назначен мастер-консультант на дату приема а/м</t>
-  </si>
-  <si>
-    <t>{icon} STATUSMONITOR_TABLE</t>
-  </si>
-  <si>
-    <t>{icon} Таблица</t>
-  </si>
-  <si>
-    <t>IS_STATE</t>
-  </si>
-  <si>
-    <t>Состояние</t>
-  </si>
-  <si>
-    <t>STATUS_CREATE</t>
-  </si>
-  <si>
-    <t>{icon} STATUS_CREATE_RN</t>
-  </si>
-  <si>
-    <t>STATUS_UPDATE</t>
-  </si>
-  <si>
-    <t>STATUSMONITOR_TITLE</t>
-  </si>
-  <si>
-    <t>Skoda Монитор готовности</t>
-  </si>
-  <si>
-    <t>WELCOME_MSG</t>
-  </si>
-  <si>
-    <t>Вас обслуживают:</t>
-  </si>
-  <si>
-    <t>BODY_TYPE</t>
-  </si>
-  <si>
-    <t>Тип кузова</t>
-  </si>
-  <si>
-    <t>BODY_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>Описание</t>
-  </si>
-  <si>
-    <t>BRAND</t>
-  </si>
-  <si>
-    <t>Бренд</t>
-  </si>
-  <si>
-    <t>BRAND_LOGO</t>
-  </si>
-  <si>
-    <t>Логотип</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>MODELSCOUNT</t>
-  </si>
-  <si>
-    <t>Кол-во а/м</t>
-  </si>
-  <si>
-    <t>EMPLOYEESSCOUNT</t>
-  </si>
-  <si>
-    <t>Кол-во сотрудников</t>
-  </si>
-  <si>
-    <t>COMPANIES</t>
-  </si>
-  <si>
-    <t>Организации</t>
-  </si>
-  <si>
-    <t>COMPANY_NAME</t>
-  </si>
-  <si>
-    <t>COMPANY_BRAND</t>
-  </si>
-  <si>
-    <t>COMPANY_LOGO</t>
-  </si>
-  <si>
-    <t>COMPANY_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>SURNAME</t>
-  </si>
-  <si>
-    <t>PATRONIMYC</t>
-  </si>
-  <si>
-    <t>PHOTO</t>
-  </si>
-  <si>
-    <t>Фото</t>
-  </si>
-  <si>
-    <t>COMPANY</t>
-  </si>
-  <si>
-    <t>Организация</t>
-  </si>
-  <si>
-    <t>POSITION</t>
-  </si>
-  <si>
-    <t>FULLNAME</t>
-  </si>
-  <si>
-    <t>Ф.И.О</t>
-  </si>
-  <si>
-    <t>BRAND_ID</t>
-  </si>
-  <si>
-    <t>MODEL_NAME</t>
-  </si>
-  <si>
-    <t>Модель</t>
-  </si>
-  <si>
-    <t>MODELS</t>
-  </si>
-  <si>
-    <t>Модели</t>
-  </si>
-  <si>
-    <t>REFERENCES_POSITION</t>
-  </si>
-  <si>
-    <t>Должности</t>
-  </si>
-  <si>
-    <t>REFERENCES_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>REGION_NAME</t>
-  </si>
-  <si>
-    <t>REGION_CODE</t>
-  </si>
-  <si>
-    <t>Код региона</t>
-  </si>
-  <si>
-    <t>REGIONANDCODES</t>
-  </si>
-  <si>
-    <t>EMPLOYEES</t>
-  </si>
-  <si>
-    <t>SERVICESHEDULER_SEARCH</t>
-  </si>
-  <si>
-    <t>CONFIRM_DELETE</t>
-  </si>
-  <si>
-    <t>Удалить?</t>
-  </si>
-  <si>
     <t>{icon} EMPLOYEES</t>
   </si>
   <si>
@@ -1336,9 +1303,6 @@
     <t>{icon} COMPANIES</t>
   </si>
   <si>
-    <t>ADMIN_DEPARTMENTS</t>
-  </si>
-  <si>
     <t>DEPARTMENTS</t>
   </si>
   <si>
@@ -1384,9 +1348,6 @@
     <t>REGIONS_EXCEL_TITLE</t>
   </si>
   <si>
-    <t>GO_BACK</t>
-  </si>
-  <si>
     <t>SK_TITLE</t>
   </si>
   <si>
@@ -1426,12 +1387,6 @@
     <t>{icon} CREDITCALENDAR_EXPORT_EXCEL</t>
   </si>
   <si>
-    <t>RESPONSIBLES_DOES_NOT_EXIST</t>
-  </si>
-  <si>
-    <t>Ответственные не назначены</t>
-  </si>
-  <si>
     <t>COMMENTS</t>
   </si>
   <si>
@@ -1502,6 +1457,246 @@
   </si>
   <si>
     <t>Вам запрещено выполнять данное действие</t>
+  </si>
+  <si>
+    <t>NEW_CREDITCALENDAR_COMMENT</t>
+  </si>
+  <si>
+    <t>CREDITCALENDAR_HEADER_TEXT</t>
+  </si>
+  <si>
+    <t>COMMENTDATE</t>
+  </si>
+  <si>
+    <t>Дата комментария</t>
+  </si>
+  <si>
+    <t>TT_EXCEL_TITLE</t>
+  </si>
+  <si>
+    <t>TARGETS_EXCEL_TABLEHEADER</t>
+  </si>
+  <si>
+    <t>TARGETS_EXCEL_TITLE</t>
+  </si>
+  <si>
+    <t>Create Clientcirculationcomment</t>
+  </si>
+  <si>
+    <t>Clientcirculationcomments</t>
+  </si>
+  <si>
+    <t>ОКиС. События</t>
+  </si>
+  <si>
+    <t>{icon} NAV_ALLIANCE_CCIRCULATIONCOMMENT</t>
+  </si>
+  <si>
+    <t>{icon} ОКиС. События</t>
+  </si>
+  <si>
+    <t>BODYTYPES_EXCEL_TABLEHEADER</t>
+  </si>
+  <si>
+    <t>BODYTYPES_EXCEL_TITLE</t>
+  </si>
+  <si>
+    <t>BT_EXCEL_TITLE_</t>
+  </si>
+  <si>
+    <t>BODYTYPES</t>
+  </si>
+  <si>
+    <t>USERROLES</t>
+  </si>
+  <si>
+    <t>UR_EXCEL_TABLEHEADER</t>
+  </si>
+  <si>
+    <t>USERROLES_EXCEL_TITLE</t>
+  </si>
+  <si>
+    <t>Роли пользователй</t>
+  </si>
+  <si>
+    <t>UR_TITLE</t>
+  </si>
+  <si>
+    <t>Роли</t>
+  </si>
+  <si>
+    <t>SALESMANAGER</t>
+  </si>
+  <si>
+    <t>Менеджер ОП</t>
+  </si>
+  <si>
+    <t>CREDITMANAGER</t>
+  </si>
+  <si>
+    <t>Исполнитель</t>
+  </si>
+  <si>
+    <t>CLIENTCIRCULATIONCOMMENTVALIDATIONERROR</t>
+  </si>
+  <si>
+    <t>CLIENTCIRCULATIONCOMMENTDONE</t>
+  </si>
+  <si>
+    <t>Событие успешно добавлено!</t>
+  </si>
+  <si>
+    <t>{icon} CLIENTDATA</t>
+  </si>
+  <si>
+    <t>{icon} Данные клиента (показать/скрыть)</t>
+  </si>
+  <si>
+    <t>{icon} SERVICESHEDULER_CALENDAR</t>
+  </si>
+  <si>
+    <t>{icon} SERVICESHEDULER_TABLE</t>
+  </si>
+  <si>
+    <t>{icon} CLIENTCIRCULATIONCOMMENTS</t>
+  </si>
+  <si>
+    <t>{icon} SERVICESHEDULER_SEARCH</t>
+  </si>
+  <si>
+    <t>CARS</t>
+  </si>
+  <si>
+    <t>а/м</t>
+  </si>
+  <si>
+    <t>{icon} PRINT</t>
+  </si>
+  <si>
+    <t>{icon} Печать</t>
+  </si>
+  <si>
+    <t>CALENDAR_TITLE</t>
+  </si>
+  <si>
+    <t>Тема</t>
+  </si>
+  <si>
+    <t>DATE_FROM</t>
+  </si>
+  <si>
+    <t>TIME_FROM</t>
+  </si>
+  <si>
+    <t>Время от:</t>
+  </si>
+  <si>
+    <t>DATE_TO</t>
+  </si>
+  <si>
+    <t>Дата до:</t>
+  </si>
+  <si>
+    <t>TIME_TO</t>
+  </si>
+  <si>
+    <t>Время до:</t>
+  </si>
+  <si>
+    <t>CALENDAR_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>CALENDAR_LOCATION</t>
+  </si>
+  <si>
+    <t>Месторасположение</t>
+  </si>
+  <si>
+    <t>CALENDAR_TYPE</t>
+  </si>
+  <si>
+    <t>CREDITCALENDAR_ALLDAY</t>
+  </si>
+  <si>
+    <t>Ежедневно</t>
+  </si>
+  <si>
+    <t>CREDITCALENDAR_PRIORITY</t>
+  </si>
+  <si>
+    <t>Приоритет</t>
+  </si>
+  <si>
+    <t>CREDITCALENDAR_AUTHOR</t>
+  </si>
+  <si>
+    <t>CREDITCALENADR_STATUS</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Личная запись</t>
+  </si>
+  <si>
+    <t>Calendar Type</t>
+  </si>
+  <si>
+    <t>CALENDAR_EVENT_PERIOD</t>
+  </si>
+  <si>
+    <t>Период</t>
+  </si>
+  <si>
+    <t>CALENDAR_EVENT_LOCATIONS</t>
+  </si>
+  <si>
+    <t>CALENDAR_EVENT_RESPONSIBLES</t>
+  </si>
+  <si>
+    <t>Ответственные</t>
+  </si>
+  <si>
+    <t>CALENDAR_COMMENTS_COUNT</t>
+  </si>
+  <si>
+    <t>DELETE_CONFIRM</t>
+  </si>
+  <si>
+    <t>EXCEL_TITLE</t>
+  </si>
+  <si>
+    <t>ОКиС_Календарь</t>
+  </si>
+  <si>
+    <t>EXCEL_TABLEHEADER</t>
+  </si>
+  <si>
+    <t>NEW_CREDITCALENDAR_EVENT</t>
+  </si>
+  <si>
+    <t>NAV_ALLIANCE_CREDITCALENDAR</t>
+  </si>
+  <si>
+    <t>COUNTRECORDS</t>
+  </si>
+  <si>
+    <t>Записей</t>
+  </si>
+  <si>
+    <t>{icon} CREDITWIDGETS</t>
+  </si>
+  <si>
+    <t>{icon} Отдел кредитования, страхования, лизинга</t>
+  </si>
+  <si>
+    <t>CREDITTRAFFIC</t>
+  </si>
+  <si>
+    <t>ОКиС. Трафик</t>
+  </si>
+  <si>
+    <t>CREDITEVENTS</t>
   </si>
 </sst>
 </file>
@@ -1905,7 +2100,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D313"/>
+  <dimension ref="A1:D358"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2105,16 +2300,14 @@
       <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>7</v>
@@ -2126,7 +2319,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>7</v>
@@ -2138,12 +2331,14 @@
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
@@ -2267,7 +2462,9 @@
       <c r="C27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
@@ -2280,7 +2477,7 @@
         <v>7</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2294,7 +2491,7 @@
         <v>7</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2302,13 +2499,13 @@
         <v>5</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2316,13 +2513,13 @@
         <v>5</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2336,7 +2533,7 @@
         <v>7</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2344,13 +2541,13 @@
         <v>5</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2358,13 +2555,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2372,13 +2569,13 @@
         <v>5</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2386,13 +2583,13 @@
         <v>5</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2400,14 +2597,12 @@
         <v>5</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
@@ -2419,20 +2614,22 @@
       <c r="C38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2440,13 +2637,13 @@
         <v>5</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2460,7 +2657,7 @@
         <v>7</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2468,13 +2665,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2488,7 +2685,7 @@
         <v>7</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2496,13 +2693,13 @@
         <v>5</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2510,13 +2707,13 @@
         <v>5</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2530,7 +2727,7 @@
         <v>7</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2538,13 +2735,13 @@
         <v>5</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2558,7 +2755,7 @@
         <v>7</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2566,13 +2763,13 @@
         <v>5</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2580,13 +2777,13 @@
         <v>5</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2594,13 +2791,13 @@
         <v>5</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2608,13 +2805,13 @@
         <v>5</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2622,13 +2819,13 @@
         <v>5</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2636,13 +2833,13 @@
         <v>5</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2650,13 +2847,13 @@
         <v>5</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2664,13 +2861,13 @@
         <v>5</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2678,13 +2875,13 @@
         <v>5</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2692,13 +2889,13 @@
         <v>5</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2706,28 +2903,24 @@
         <v>5</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="D60" s="2"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
@@ -2739,32 +2932,36 @@
       <c r="C61" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D61" s="2"/>
+      <c r="D61" s="2" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D62" s="2"/>
+      <c r="D62" s="2" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2772,13 +2969,13 @@
         <v>5</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2786,13 +2983,13 @@
         <v>5</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2800,13 +2997,13 @@
         <v>5</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2814,13 +3011,13 @@
         <v>5</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2828,13 +3025,13 @@
         <v>5</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2842,13 +3039,13 @@
         <v>5</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2856,13 +3053,13 @@
         <v>5</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2870,13 +3067,13 @@
         <v>5</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2884,13 +3081,13 @@
         <v>5</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2898,13 +3095,13 @@
         <v>5</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2912,13 +3109,13 @@
         <v>5</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2926,13 +3123,13 @@
         <v>5</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2940,28 +3137,24 @@
         <v>5</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>132</v>
-      </c>
+      <c r="D76" s="2"/>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>134</v>
-      </c>
+      <c r="D77" s="2"/>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2" t="s">
@@ -2985,7 +3178,9 @@
       <c r="C79" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D79" s="2"/>
+      <c r="D79" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2" t="s">
@@ -2997,20 +3192,22 @@
       <c r="C80" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D80" s="2"/>
+      <c r="D80" s="2" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3018,13 +3215,13 @@
         <v>5</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3032,13 +3229,13 @@
         <v>5</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3046,13 +3243,13 @@
         <v>5</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3060,13 +3257,13 @@
         <v>5</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3074,13 +3271,13 @@
         <v>5</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>144</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3088,13 +3285,13 @@
         <v>5</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3108,7 +3305,7 @@
         <v>7</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3122,7 +3319,7 @@
         <v>7</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>42</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3130,28 +3327,24 @@
         <v>5</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="D90" s="2"/>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>154</v>
-      </c>
+      <c r="D91" s="2"/>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2" t="s">
@@ -3163,32 +3356,36 @@
       <c r="C92" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D92" s="2"/>
+      <c r="D92" s="2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D93" s="2"/>
+      <c r="D93" s="2" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3196,13 +3393,13 @@
         <v>5</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>160</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3210,14 +3407,12 @@
         <v>5</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>162</v>
-      </c>
+      <c r="D96" s="2"/>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2" t="s">
@@ -3230,7 +3425,7 @@
         <v>7</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3238,25 +3433,27 @@
         <v>5</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D98" s="2"/>
+      <c r="D98" s="2" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>166</v>
+        <v>86</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3264,13 +3461,13 @@
         <v>5</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>168</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3284,7 +3481,7 @@
         <v>7</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3298,7 +3495,7 @@
         <v>7</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>38</v>
+        <v>171</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3306,13 +3503,13 @@
         <v>5</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>54</v>
+        <v>173</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3320,13 +3517,13 @@
         <v>5</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3334,13 +3531,13 @@
         <v>5</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3348,13 +3545,13 @@
         <v>5</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>19</v>
+        <v>178</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3362,13 +3559,13 @@
         <v>5</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>178</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3376,14 +3573,12 @@
         <v>5</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>180</v>
-      </c>
+      <c r="D108" s="2"/>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2" t="s">
@@ -3396,7 +3591,7 @@
         <v>7</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>81</v>
+        <v>182</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3404,25 +3599,27 @@
         <v>5</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D110" s="2"/>
+      <c r="D110" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3436,7 +3633,7 @@
         <v>7</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>15</v>
+        <v>186</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3444,13 +3641,13 @@
         <v>5</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3458,13 +3655,13 @@
         <v>5</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>188</v>
+        <v>55</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3472,14 +3669,12 @@
         <v>5</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D115" s="2" t="s">
-        <v>190</v>
-      </c>
+      <c r="D115" s="2"/>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2" t="s">
@@ -3492,7 +3687,7 @@
         <v>7</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3505,7 +3700,9 @@
       <c r="C117" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D117" s="2"/>
+      <c r="D117" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2" t="s">
@@ -3518,7 +3715,7 @@
         <v>7</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3531,9 +3728,7 @@
       <c r="C119" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D119" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="D119" s="2"/>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2" t="s">
@@ -3545,9 +3740,7 @@
       <c r="C120" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D120" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="D120" s="2"/>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2" t="s">
@@ -3571,32 +3764,36 @@
       <c r="C122" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D122" s="2"/>
+      <c r="D122" s="2" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D123" s="2"/>
+      <c r="D123" s="2" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3604,13 +3801,13 @@
         <v>5</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>202</v>
+        <v>140</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3624,7 +3821,7 @@
         <v>7</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>140</v>
+        <v>204</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3632,28 +3829,24 @@
         <v>5</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D127" s="2" t="s">
-        <v>142</v>
-      </c>
+      <c r="D127" s="2"/>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D128" s="2" t="s">
-        <v>206</v>
-      </c>
+      <c r="D128" s="2"/>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2" t="s">
@@ -3689,7 +3882,9 @@
       <c r="C131" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D131" s="2"/>
+      <c r="D131" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2" t="s">
@@ -3701,34 +3896,34 @@
       <c r="C132" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D132" s="2"/>
+      <c r="D132" s="2" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D133" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="D133" s="2"/>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3736,25 +3931,27 @@
         <v>5</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D135" s="2"/>
+      <c r="D135" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3762,13 +3959,13 @@
         <v>5</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3776,14 +3973,12 @@
         <v>5</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D138" s="2" t="s">
-        <v>219</v>
-      </c>
+      <c r="D138" s="2"/>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2" t="s">
@@ -3796,7 +3991,7 @@
         <v>7</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>144</v>
+        <v>221</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3804,25 +3999,27 @@
         <v>5</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D140" s="2"/>
+      <c r="D140" s="2" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3830,13 +4027,13 @@
         <v>5</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3844,13 +4041,13 @@
         <v>5</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3858,13 +4055,13 @@
         <v>5</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3872,13 +4069,13 @@
         <v>5</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3886,13 +4083,13 @@
         <v>5</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3900,13 +4097,13 @@
         <v>5</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>235</v>
+        <v>82</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3914,13 +4111,13 @@
         <v>5</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3928,13 +4125,13 @@
         <v>5</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>84</v>
+        <v>240</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3942,13 +4139,13 @@
         <v>5</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3956,7 +4153,7 @@
         <v>5</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>7</v>
@@ -3970,13 +4167,13 @@
         <v>5</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3990,7 +4187,7 @@
         <v>7</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3998,13 +4195,13 @@
         <v>5</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4012,13 +4209,13 @@
         <v>5</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4026,13 +4223,13 @@
         <v>5</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4040,13 +4237,13 @@
         <v>5</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4054,13 +4251,13 @@
         <v>5</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4068,13 +4265,13 @@
         <v>5</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>255</v>
+        <v>100</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4082,13 +4279,13 @@
         <v>5</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4096,13 +4293,13 @@
         <v>5</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>102</v>
+        <v>260</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4110,13 +4307,13 @@
         <v>5</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4124,13 +4321,13 @@
         <v>5</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4138,13 +4335,13 @@
         <v>5</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4152,13 +4349,13 @@
         <v>5</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>266</v>
+        <v>77</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4166,13 +4363,13 @@
         <v>5</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4180,13 +4377,13 @@
         <v>5</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>78</v>
+        <v>271</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4194,13 +4391,13 @@
         <v>5</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4208,13 +4405,13 @@
         <v>5</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4222,13 +4419,13 @@
         <v>5</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4236,14 +4433,12 @@
         <v>5</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>276</v>
+        <v>66</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D171" s="2" t="s">
-        <v>277</v>
-      </c>
+      <c r="D171" s="2"/>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2" t="s">
@@ -4264,25 +4459,27 @@
         <v>5</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>67</v>
+        <v>280</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D173" s="2"/>
+      <c r="D173" s="2" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>281</v>
+        <v>44</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4290,13 +4487,13 @@
         <v>5</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4304,13 +4501,13 @@
         <v>5</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4318,13 +4515,13 @@
         <v>5</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>287</v>
+        <v>84</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4346,7 +4543,7 @@
         <v>5</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>290</v>
+        <v>86</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>7</v>
@@ -4360,13 +4557,13 @@
         <v>5</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>292</v>
+        <v>36</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4374,13 +4571,13 @@
         <v>5</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>88</v>
+        <v>291</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>88</v>
+        <v>292</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4394,7 +4591,7 @@
         <v>7</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4408,7 +4605,7 @@
         <v>7</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>295</v>
+        <v>30</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4416,13 +4613,13 @@
         <v>5</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>297</v>
+        <v>32</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4430,13 +4627,13 @@
         <v>5</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4444,13 +4641,13 @@
         <v>5</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>32</v>
+        <v>298</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4458,13 +4655,13 @@
         <v>5</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4478,7 +4675,7 @@
         <v>7</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>36</v>
+        <v>302</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4486,13 +4683,13 @@
         <v>5</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4500,13 +4697,13 @@
         <v>5</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4514,13 +4711,13 @@
         <v>5</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>307</v>
+        <v>55</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4534,7 +4731,7 @@
         <v>7</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>309</v>
+        <v>57</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4542,13 +4739,13 @@
         <v>5</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D193" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4556,13 +4753,13 @@
         <v>5</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>313</v>
+        <v>17</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4570,13 +4767,13 @@
         <v>5</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4584,13 +4781,13 @@
         <v>5</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4598,13 +4795,13 @@
         <v>5</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4612,13 +4809,13 @@
         <v>5</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4626,13 +4823,13 @@
         <v>5</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4640,13 +4837,13 @@
         <v>5</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4654,13 +4851,13 @@
         <v>5</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>81</v>
+        <v>322</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4668,13 +4865,13 @@
         <v>5</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>84</v>
+        <v>178</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4682,13 +4879,13 @@
         <v>5</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D203" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4696,13 +4893,13 @@
         <v>5</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4730,7 +4927,7 @@
         <v>7</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4738,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B207" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D207" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4786,7 +4983,7 @@
         <v>7</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>338</v>
+        <v>300</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4794,13 +4991,13 @@
         <v>5</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>334</v>
+        <v>36</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4808,13 +5005,13 @@
         <v>5</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D212" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4822,13 +5019,13 @@
         <v>5</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D213" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4836,13 +5033,13 @@
         <v>5</v>
       </c>
       <c r="B214" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D214" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4850,13 +5047,13 @@
         <v>5</v>
       </c>
       <c r="B215" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D215" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4870,7 +5067,7 @@
         <v>7</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>38</v>
+        <v>348</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4878,13 +5075,13 @@
         <v>5</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>349</v>
+        <v>17</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4898,7 +5095,7 @@
         <v>7</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>351</v>
+        <v>17</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4906,13 +5103,13 @@
         <v>5</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>353</v>
+        <v>15</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4920,13 +5117,13 @@
         <v>5</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4934,13 +5131,13 @@
         <v>5</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4948,13 +5145,13 @@
         <v>5</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>19</v>
+        <v>357</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4962,13 +5159,13 @@
         <v>5</v>
       </c>
       <c r="B223" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D223" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4982,7 +5179,7 @@
         <v>7</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>15</v>
+        <v>361</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4990,13 +5187,13 @@
         <v>5</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5004,13 +5201,13 @@
         <v>5</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5066,7 +5263,7 @@
         <v>7</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>372</v>
+        <v>214</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5074,25 +5271,27 @@
         <v>5</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D231" s="2"/>
+      <c r="D231" s="2" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5100,13 +5299,13 @@
         <v>5</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5114,13 +5313,13 @@
         <v>5</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>379</v>
+        <v>158</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5128,13 +5327,13 @@
         <v>5</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5142,13 +5341,13 @@
         <v>5</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>370</v>
+        <v>160</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5156,13 +5355,13 @@
         <v>5</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5170,13 +5369,13 @@
         <v>5</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5184,13 +5383,13 @@
         <v>5</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5198,13 +5397,13 @@
         <v>5</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5212,13 +5411,13 @@
         <v>5</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>162</v>
+        <v>361</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5226,13 +5425,13 @@
         <v>5</v>
       </c>
       <c r="B242" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D242" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5240,13 +5439,13 @@
         <v>5</v>
       </c>
       <c r="B243" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D243" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5254,13 +5453,13 @@
         <v>5</v>
       </c>
       <c r="B244" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D244" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5274,7 +5473,7 @@
         <v>7</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>393</v>
+        <v>359</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5282,13 +5481,13 @@
         <v>5</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>370</v>
+        <v>292</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5296,13 +5495,13 @@
         <v>5</v>
       </c>
       <c r="B247" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D247" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5310,13 +5509,13 @@
         <v>5</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>398</v>
+        <v>292</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5324,13 +5523,13 @@
         <v>5</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5338,13 +5537,13 @@
         <v>5</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>368</v>
+        <v>106</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5352,13 +5551,13 @@
         <v>5</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>295</v>
+        <v>401</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5366,13 +5565,13 @@
         <v>5</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>404</v>
+        <v>108</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5380,13 +5579,13 @@
         <v>5</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>295</v>
+        <v>404</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5394,13 +5593,13 @@
         <v>5</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>297</v>
+        <v>110</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5408,12 +5607,14 @@
         <v>5</v>
       </c>
       <c r="B255" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D255" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C255" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D255" s="2"/>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2" t="s">
@@ -5439,9 +5640,7 @@
       <c r="C257" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D257" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="D257" s="2"/>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2" t="s">
@@ -5453,36 +5652,32 @@
       <c r="C258" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D258" s="2" t="s">
-        <v>412</v>
-      </c>
+      <c r="D258" s="2"/>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D259" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="D259" s="2"/>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B260" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D260" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5490,13 +5685,13 @@
         <v>5</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5504,13 +5699,13 @@
         <v>5</v>
       </c>
       <c r="B262" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D262" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5518,13 +5713,13 @@
         <v>5</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>420</v>
+        <v>112</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5532,24 +5727,28 @@
         <v>5</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D264" s="2"/>
+      <c r="D264" s="2" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B265" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D265" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="C265" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D265" s="2"/>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2" t="s">
@@ -5561,20 +5760,22 @@
       <c r="C266" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D266" s="2"/>
+      <c r="D266" s="2" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>425</v>
+        <v>178</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5588,7 +5789,7 @@
         <v>7</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>118</v>
+        <v>370</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5602,7 +5803,7 @@
         <v>7</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>428</v>
+        <v>122</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5610,13 +5811,13 @@
         <v>5</v>
       </c>
       <c r="B270" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D270" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5630,7 +5831,7 @@
         <v>7</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>431</v>
+        <v>120</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5638,13 +5839,13 @@
         <v>5</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>433</v>
+        <v>114</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5652,13 +5853,13 @@
         <v>5</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>435</v>
+        <v>391</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5666,13 +5867,13 @@
         <v>5</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5680,13 +5881,13 @@
         <v>5</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>379</v>
+        <v>435</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5694,13 +5895,13 @@
         <v>5</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>124</v>
+        <v>437</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5708,12 +5909,14 @@
         <v>5</v>
       </c>
       <c r="B277" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D277" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="C277" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D277" s="2"/>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2" t="s">
@@ -5726,7 +5929,7 @@
         <v>7</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>441</v>
+        <v>124</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5734,13 +5937,13 @@
         <v>5</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>122</v>
+        <v>401</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5748,13 +5951,13 @@
         <v>5</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>116</v>
+        <v>401</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5762,55 +5965,49 @@
         <v>5</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D281" s="2" t="s">
-        <v>400</v>
-      </c>
+      <c r="D281" s="2"/>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D282" s="2" t="s">
-        <v>120</v>
-      </c>
+      <c r="D282" s="2"/>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D283" s="2" t="s">
-        <v>447</v>
-      </c>
+      <c r="D283" s="2"/>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5818,13 +6015,13 @@
         <v>5</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5832,13 +6029,13 @@
         <v>5</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>126</v>
+        <v>279</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5846,13 +6043,13 @@
         <v>5</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>412</v>
+        <v>452</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5860,13 +6057,13 @@
         <v>5</v>
       </c>
       <c r="B288" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D288" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D288" s="2" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5879,7 +6076,9 @@
       <c r="C289" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D289" s="2"/>
+      <c r="D289" s="2" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2" t="s">
@@ -5891,44 +6090,50 @@
       <c r="C290" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D290" s="2"/>
+      <c r="D290" s="2" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D291" s="2"/>
+      <c r="D291" s="2" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D292" s="2"/>
+      <c r="D292" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>460</v>
+        <v>346</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5955,9 +6160,7 @@
       <c r="C295" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D295" s="2" t="s">
-        <v>281</v>
-      </c>
+      <c r="D295" s="2"/>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2" t="s">
@@ -5998,7 +6201,7 @@
         <v>7</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>319</v>
+        <v>469</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6006,13 +6209,13 @@
         <v>5</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6020,13 +6223,13 @@
         <v>5</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6034,13 +6237,13 @@
         <v>5</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>338</v>
+        <v>475</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6048,13 +6251,13 @@
         <v>5</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>355</v>
+        <v>477</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6062,13 +6265,13 @@
         <v>5</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>355</v>
+        <v>479</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6076,21 +6279,19 @@
         <v>5</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D304" s="2" t="s">
-        <v>477</v>
-      </c>
+      <c r="D304" s="2"/>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>7</v>
@@ -6102,13 +6303,13 @@
         <v>5</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6116,13 +6317,13 @@
         <v>5</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>482</v>
+        <v>404</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6130,13 +6331,13 @@
         <v>5</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>484</v>
+        <v>404</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6144,13 +6345,13 @@
         <v>5</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>486</v>
+        <v>404</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6163,22 +6364,20 @@
       <c r="C310" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D310" s="2" t="s">
-        <v>488</v>
-      </c>
+      <c r="D310" s="2"/>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B311" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D311" s="2" t="s">
         <v>489</v>
-      </c>
-      <c r="C311" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D311" s="2" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6186,13 +6385,13 @@
         <v>5</v>
       </c>
       <c r="B312" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D312" s="2" t="s">
         <v>491</v>
-      </c>
-      <c r="C312" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D312" s="2" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6200,13 +6399,627 @@
         <v>5</v>
       </c>
       <c r="B313" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B314" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="C313" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D313" s="2" t="s">
+      <c r="C314" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B315" s="2" t="s">
         <v>494</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D315" s="2"/>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D323" s="2"/>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D329" s="2"/>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D339" s="2"/>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D345" s="2"/>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D350" s="2"/>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D352" s="2"/>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D353" s="2"/>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>489</v>
       </c>
     </row>
   </sheetData>
